--- a/excel/10_leverage.xlsx
+++ b/excel/10_leverage.xlsx
@@ -8,13 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\busi448\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C45CDD8-B232-48F6-83F3-A0815FBE5235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1A7180-2633-45CD-873B-BB9832FC5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14490" yWindow="9980" windowWidth="9380" windowHeight="6410" xr2:uid="{85997A6B-105C-45C3-9CB4-DBADA1C8AA17}"/>
+    <workbookView xWindow="33700" yWindow="3120" windowWidth="9380" windowHeight="6410" xr2:uid="{85997A6B-105C-45C3-9CB4-DBADA1C8AA17}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Margin" sheetId="1" r:id="rId1"/>
+    <sheet name="Repo" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="haircut">Repo!$E$2</definedName>
+    <definedName name="init_cash">Repo!$C$3</definedName>
+    <definedName name="leverage">Repo!$C$13</definedName>
+    <definedName name="MV">Repo!$C$2</definedName>
+    <definedName name="repo_price">Repo!$C$4</definedName>
+    <definedName name="repo_rate">Repo!$E$3</definedName>
+    <definedName name="return">Repo!$C$17</definedName>
+    <definedName name="term">Repo!$C$5</definedName>
+  </definedNames>
   <calcPr calcId="191029" iterate="1" iterateCount="1000"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>Assets</t>
   </si>
@@ -61,6 +72,54 @@
   </si>
   <si>
     <t>Balance Sheet after Realized Return (ignoring interest exp)</t>
+  </si>
+  <si>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>Implied haircut</t>
+  </si>
+  <si>
+    <t>Initial cash</t>
+  </si>
+  <si>
+    <t>Implied repo rate</t>
+  </si>
+  <si>
+    <t>Repurchase price</t>
+  </si>
+  <si>
+    <t>Term (days)</t>
+  </si>
+  <si>
+    <t>Initial Balance Sheet (buy bond and borrow in repo market)</t>
+  </si>
+  <si>
+    <t>Bond (repo'd)</t>
+  </si>
+  <si>
+    <t>Repo (Cash Loan)</t>
+  </si>
+  <si>
+    <t>Leverage</t>
+  </si>
+  <si>
+    <t>Percent margin</t>
+  </si>
+  <si>
+    <t>Balance Sheet after Realized Return (prior to returning cash)</t>
+  </si>
+  <si>
+    <t>Bond return (total)</t>
+  </si>
+  <si>
+    <t>Levered return</t>
+  </si>
+  <si>
+    <t>Levered return (formula)</t>
   </si>
 </sst>
 </file>
@@ -70,7 +129,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -288,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -320,13 +379,29 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -644,7 +719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2257A83-6B46-4E2D-883C-BCBE65BA1E2C}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -795,4 +870,305 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8774C3A8-E238-4BA2-A94C-E40054297607}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="20">
+        <v>1000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="12">
+        <f>1-init_cash/MV</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="F2" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(haircut)</f>
+        <v>=1-init_cash/MV</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="20">
+        <v>980</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="12">
+        <f>(repo_price/init_cash-1)*360/term</f>
+        <v>3.6734693877547464E-2</v>
+      </c>
+      <c r="F3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(repo_rate)</f>
+        <v>=(repo_price/init_cash-1)*360/term</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="20">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="13">
+        <f>MV</f>
+        <v>1000</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="16">
+        <f>init_cash</f>
+        <v>980</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="5"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="17">
+        <f>C11-E9</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="6"/>
+      <c r="C11" s="15">
+        <f>SUM(C9:C10)</f>
+        <v>1000</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="18">
+        <f>SUM(E9:E10)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="21"/>
+      <c r="C12" s="13"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="24">
+        <f>E9/E10</f>
+        <v>49</v>
+      </c>
+      <c r="D13" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C13)</f>
+        <v>=E9/E10</v>
+      </c>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="12">
+        <f>E10/C11</f>
+        <v>0.02</v>
+      </c>
+      <c r="D14" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C14)</f>
+        <v>=E10/C11</v>
+      </c>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="21"/>
+      <c r="C15" s="13"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="13">
+        <f>C9*(1+return)</f>
+        <v>1004.9999999999999</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="16">
+        <f>repo_price</f>
+        <v>981</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="5"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="17">
+        <f>C21-E19</f>
+        <v>23.999999999999886</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="6"/>
+      <c r="C21" s="15">
+        <f>SUM(C19:C20)</f>
+        <v>1004.9999999999999</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="18">
+        <f>SUM(E19:E20)</f>
+        <v>1004.9999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="21"/>
+      <c r="C22" s="13"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B23" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="24">
+        <f>E19/E20</f>
+        <v>40.875000000000192</v>
+      </c>
+      <c r="D23" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C23)</f>
+        <v>=E19/E20</v>
+      </c>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B24" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="12">
+        <f>E20/C21</f>
+        <v>2.3880597014925262E-2</v>
+      </c>
+      <c r="D24" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C24)</f>
+        <v>=E20/C21</v>
+      </c>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B25" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="12">
+        <f>E20/E10-1</f>
+        <v>0.1999999999999944</v>
+      </c>
+      <c r="D25" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C25)</f>
+        <v>=E20/E10-1</v>
+      </c>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B26" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="27">
+        <f>return+leverage*(return-repo_rate*term/360)</f>
+        <v>0.20000000000000484</v>
+      </c>
+      <c r="D26" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C26)</f>
+        <v>=return+leverage*(return-repo_rate*term/360)</v>
+      </c>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/10_leverage.xlsx
+++ b/excel/10_leverage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\busi448\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\busi448\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1A7180-2633-45CD-873B-BB9832FC5EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E396A97-AA52-464F-99BC-89DED150795A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33700" yWindow="3120" windowWidth="9380" windowHeight="6410" xr2:uid="{85997A6B-105C-45C3-9CB4-DBADA1C8AA17}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21600" xr2:uid="{85997A6B-105C-45C3-9CB4-DBADA1C8AA17}"/>
   </bookViews>
   <sheets>
     <sheet name="Margin" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>Assets</t>
   </si>
@@ -68,12 +68,6 @@
     <t>Stock return</t>
   </si>
   <si>
-    <t>% Margin</t>
-  </si>
-  <si>
-    <t>Balance Sheet after Realized Return (ignoring interest exp)</t>
-  </si>
-  <si>
     <t>Assumptions</t>
   </si>
   <si>
@@ -104,12 +98,6 @@
     <t>Repo (Cash Loan)</t>
   </si>
   <si>
-    <t>Leverage</t>
-  </si>
-  <si>
-    <t>Percent margin</t>
-  </si>
-  <si>
     <t>Balance Sheet after Realized Return (prior to returning cash)</t>
   </si>
   <si>
@@ -120,6 +108,28 @@
   </si>
   <si>
     <t>Levered return (formula)</t>
+  </si>
+  <si>
+    <t>Interest Exp</t>
+  </si>
+  <si>
+    <t>Leverage (D/E)</t>
+  </si>
+  <si>
+    <t>Leverage ratio (A/E)</t>
+  </si>
+  <si>
+    <t>% Margin (E/A)</t>
+  </si>
+  <si>
+    <t>Levered return
+(formula)</t>
+  </si>
+  <si>
+    <t>Balance Sheet after Realized Return</t>
+  </si>
+  <si>
+    <t>Percent margin (E/A)</t>
   </si>
 </sst>
 </file>
@@ -347,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -402,6 +412,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -421,9 +436,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -461,7 +476,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -567,7 +582,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -709,7 +724,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -717,22 +732,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2257A83-6B46-4E2D-883C-BCBE65BA1E2C}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.36328125" customWidth="1"/>
-    <col min="2" max="5" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -742,7 +760,7 @@
       </c>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -756,7 +774,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="14"/>
       <c r="D4" s="3" t="s">
@@ -767,7 +785,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
       <c r="C5" s="15">
         <f>SUM(C3:C4)</f>
@@ -779,91 +797,178 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="12">
+        <v>23</v>
+      </c>
+      <c r="C7" s="28">
+        <f>C5/E4</f>
+        <v>1.5</v>
+      </c>
+      <c r="D7" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C7)</f>
+        <v>=C5/E4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="24">
+        <f>E3/E4</f>
+        <v>0.5</v>
+      </c>
+      <c r="D8" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C8)</f>
+        <v>=E3/E4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="12">
         <f>E4/C5</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D7" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(C7)</f>
+      <c r="D9" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C9)</f>
         <v>=E4/C5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="19">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="8" t="s">
+      <c r="C12" s="25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="19">
         <v>0</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="4" t="s">
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="13">
-        <f>$C$3*(1+C10)</f>
-        <v>135000</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C15" s="13">
+        <f>$C$3*(1+C12)</f>
+        <v>165000</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E15" s="16">
+        <f>E3*(1+C13)</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="5"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="3" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="17">
-        <f>C12-E12</f>
-        <v>85000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="6"/>
-      <c r="C14" s="15">
-        <f>SUM(C12:C13)</f>
-        <v>135000</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="18">
-        <f>SUM(E12:E13)</f>
-        <v>135000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="12">
-        <f>E13/C14</f>
-        <v>0.62962962962962965</v>
-      </c>
-      <c r="D16" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(C16)</f>
-        <v>=E13/C14</v>
+      <c r="E16" s="17">
+        <f>C15-E15</f>
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="6"/>
+      <c r="C17" s="15">
+        <f>SUM(C15:C16)</f>
+        <v>165000</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="18">
+        <f>SUM(E15:E16)</f>
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="28">
+        <f>C17/E16</f>
+        <v>1.4347826086956521</v>
+      </c>
+      <c r="D19" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C19)</f>
+        <v>=C17/E16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="24">
+        <f>E15/E16</f>
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="D20" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C20)</f>
+        <v>=E15/E16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="12">
+        <f>E16/C17</f>
+        <v>0.69696969696969702</v>
+      </c>
+      <c r="D21" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C21)</f>
+        <v>=E16/C17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="12">
+        <f>E16/E4-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="D22" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C22)</f>
+        <v>=E16/E4-1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="12">
+        <f>C12+C8*(C12-C13)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D23" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C23)</f>
+        <v>=C12+C8*(C12-C13)</v>
       </c>
     </row>
   </sheetData>
@@ -876,82 +981,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8774C3A8-E238-4BA2-A94C-E40054297607}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.36328125" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="30">
+        <v>19576026.649999999</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="20">
-        <v>1000</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
       </c>
       <c r="E2" s="12">
         <f>1-init_cash/MV</f>
-        <v>2.0000000000000018E-2</v>
+        <v>9.999999667961168E-3</v>
       </c>
       <c r="F2" t="str">
         <f ca="1">_xlfn.FORMULATEXT(haircut)</f>
         <v>=1-init_cash/MV</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="20">
-        <v>980</v>
+        <v>10</v>
+      </c>
+      <c r="C3" s="30">
+        <v>19380266.390000001</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="12">
         <f>(repo_price/init_cash-1)*360/term</f>
-        <v>3.6734693877547464E-2</v>
+        <v>5.9999918298307975E-2</v>
       </c>
       <c r="F3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(repo_rate)</f>
         <v>=(repo_price/init_cash-1)*360/term</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="30">
+        <v>19383496.43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="20">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>0</v>
       </c>
@@ -961,23 +1066,23 @@
       </c>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="13">
         <f>MV</f>
-        <v>1000</v>
+        <v>19576026.649999999</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" s="16">
         <f>init_cash</f>
-        <v>980</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>19380266.390000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="14"/>
       <c r="D10" s="3" t="s">
@@ -985,33 +1090,33 @@
       </c>
       <c r="E10" s="17">
         <f>C11-E9</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>195760.25999999791</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
       <c r="C11" s="15">
         <f>SUM(C9:C10)</f>
-        <v>1000</v>
+        <v>19576026.649999999</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="18">
         <f>SUM(E9:E10)</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>19576026.649999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="21"/>
       <c r="C12" s="13"/>
       <c r="E12" s="22"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C13" s="24">
         <f>E9/E10</f>
-        <v>49</v>
+        <v>99.00000332038897</v>
       </c>
       <c r="D13" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C13)</f>
@@ -1019,13 +1124,13 @@
       </c>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C14" s="12">
         <f>E10/C11</f>
-        <v>0.02</v>
+        <v>9.9999996679611142E-3</v>
       </c>
       <c r="D14" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C14)</f>
@@ -1033,26 +1138,26 @@
       </c>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="21"/>
       <c r="C15" s="13"/>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C17" s="25">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>0</v>
       </c>
@@ -1062,23 +1167,23 @@
       </c>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19" s="13">
         <f>C9*(1+return)</f>
-        <v>1004.9999999999999</v>
+        <v>19595602.676649995</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E19" s="16">
         <f>repo_price</f>
-        <v>981</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>19383496.43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="14"/>
       <c r="D20" s="3" t="s">
@@ -1086,33 +1191,33 @@
       </c>
       <c r="E20" s="17">
         <f>C21-E19</f>
-        <v>23.999999999999886</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>212106.24664999545</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
       <c r="C21" s="15">
         <f>SUM(C19:C20)</f>
-        <v>1004.9999999999999</v>
+        <v>19595602.676649995</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="18">
         <f>SUM(E19:E20)</f>
-        <v>1004.9999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>19595602.676649995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" s="21"/>
       <c r="C22" s="13"/>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C23" s="24">
         <f>E19/E20</f>
-        <v>40.875000000000192</v>
+        <v>91.385787717914042</v>
       </c>
       <c r="D23" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C23)</f>
@@ -1120,13 +1225,13 @@
       </c>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="23" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C24" s="12">
         <f>E20/C21</f>
-        <v>2.3880597014925262E-2</v>
+        <v>1.0824175716868356E-2</v>
       </c>
       <c r="D24" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C24)</f>
@@ -1134,13 +1239,13 @@
       </c>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C25" s="12">
         <f>E20/E10-1</f>
-        <v>0.1999999999999944</v>
+        <v>8.350002523493627E-2</v>
       </c>
       <c r="D25" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C25)</f>
@@ -1148,13 +1253,13 @@
       </c>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C26" s="27">
         <f>return+leverage*(return-repo_rate*term/360)</f>
-        <v>0.20000000000000484</v>
+        <v>8.3500025234956865E-2</v>
       </c>
       <c r="D26" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C26)</f>
@@ -1162,7 +1267,7 @@
       </c>
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="23"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
